--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2114815.924456219</v>
+        <v>-2117731.521548547</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>320.9596570282553</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>125.476383555644</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>136.5084007578689</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>105.8339629091459</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>132.519108070308</v>
       </c>
       <c r="Y4" t="n">
-        <v>95.25520093453484</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>57.26885710882228</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +911,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>96.33626969156903</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>89.06613335611783</v>
+        <v>4.440065804380853</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>147.5486812438831</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,16 +1187,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>93.63007230513458</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>151.2756923576013</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1427,10 +1427,10 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
-        <v>326.2152140927927</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>347.7039243400708</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1576,13 +1576,13 @@
         <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>118.2923066780787</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>164.4024557880755</v>
       </c>
     </row>
     <row r="14">
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569552</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128544</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.594095449514675</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703289</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012159</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>48.85497112745813</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>127.5379405516738</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>99.97427419833906</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>261.5505590167105</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352484</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2776,10 +2776,10 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.3000058600551</v>
+        <v>194.3000058600556</v>
       </c>
     </row>
     <row r="29">
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T31" t="n">
         <v>193.1208028352486</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>549.649320534154</v>
+        <v>378.1446555862789</v>
       </c>
       <c r="C2" t="n">
-        <v>180.6868035937422</v>
+        <v>378.1446555862789</v>
       </c>
       <c r="D2" t="n">
-        <v>180.6868035937422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E2" t="n">
-        <v>180.6868035937422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>180.6868035937422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>160.8459746578856</v>
+        <v>191.8302553131613</v>
       </c>
       <c r="C4" t="n">
-        <v>160.8459746578856</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>160.8459746578856</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>160.8459746578856</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4525,13 +4525,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694736</v>
+        <v>594.2712992869311</v>
       </c>
       <c r="Y4" t="n">
-        <v>342.4944394881253</v>
+        <v>373.478720143401</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1330.912423534854</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="C5" t="n">
-        <v>961.9499065944426</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D5" t="n">
-        <v>961.9499065944426</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>576.1616539961983</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>165.1757492065908</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>151.2523451451817</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1717.512263598976</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X5" t="n">
-        <v>1717.512263598976</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="Y5" t="n">
-        <v>1717.512263598976</v>
+        <v>1761.414268258235</v>
       </c>
     </row>
     <row r="6">
@@ -4647,13 +4647,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.7118141694738</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C7" t="n">
-        <v>438.7118141694738</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D7" t="n">
-        <v>438.7118141694738</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E7" t="n">
-        <v>290.7987205870807</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="F7" t="n">
-        <v>143.9087730891704</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="G7" t="n">
-        <v>143.9087730891704</v>
+        <v>58.42789677428451</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4762,13 +4762,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1036.358670716696</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>1101.606557854603</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>1101.606557854603</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1101.606557854603</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4835,19 +4835,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2152.732416223701</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2152.732416223701</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>1799.963760953587</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X8" t="n">
-        <v>1426.498002692507</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y8" t="n">
-        <v>1036.358670716696</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4902,22 +4902,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>393.6767897220518</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4996,16 +4996,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>575.3252545522914</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>575.3252545522914</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>575.3252545522914</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y10" t="n">
-        <v>575.3252545522914</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5048,19 +5048,19 @@
         <v>1462.462702840541</v>
       </c>
       <c r="M11" t="n">
-        <v>2232.714216052256</v>
+        <v>2183.467264779579</v>
       </c>
       <c r="N11" t="n">
-        <v>2969.999193969362</v>
+        <v>2920.752242696685</v>
       </c>
       <c r="O11" t="n">
-        <v>3652.861230428501</v>
+        <v>3603.614279155823</v>
       </c>
       <c r="P11" t="n">
-        <v>4201.167179115849</v>
+        <v>4151.920227843171</v>
       </c>
       <c r="Q11" t="n">
-        <v>4564.749365221855</v>
+        <v>4515.502413949178</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,7 +5075,7 @@
         <v>4150.71341156431</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.203094298863</v>
+        <v>3819.650524220739</v>
       </c>
       <c r="W11" t="n">
         <v>3468.434439028749</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>847.8232553276018</v>
+        <v>549.793522332873</v>
       </c>
       <c r="C13" t="n">
-        <v>847.8232553276018</v>
+        <v>549.793522332873</v>
       </c>
       <c r="D13" t="n">
-        <v>697.7066159152661</v>
+        <v>549.793522332873</v>
       </c>
       <c r="E13" t="n">
         <v>549.793522332873</v>
@@ -5224,25 +5224,25 @@
         <v>2361.52146919056</v>
       </c>
       <c r="S13" t="n">
-        <v>2361.52146919056</v>
+        <v>2178.35127892949</v>
       </c>
       <c r="T13" t="n">
-        <v>2141.842686904942</v>
+        <v>1958.672496643873</v>
       </c>
       <c r="U13" t="n">
-        <v>2022.355508442236</v>
+        <v>1669.596282958599</v>
       </c>
       <c r="V13" t="n">
-        <v>1767.671020236349</v>
+        <v>1414.911794752712</v>
       </c>
       <c r="W13" t="n">
-        <v>1478.253850199389</v>
+        <v>1125.494624715752</v>
       </c>
       <c r="X13" t="n">
-        <v>1250.264299301371</v>
+        <v>897.5050738177345</v>
       </c>
       <c r="Y13" t="n">
-        <v>1029.471720157841</v>
+        <v>731.4419871631127</v>
       </c>
     </row>
     <row r="14">
@@ -5264,40 +5264,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192612</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075818</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.26572885226</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5306,13 +5306,13 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756268</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468478</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962607</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962607</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951536</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685892</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400735</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121666</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121666</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121666</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121666</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038347</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510511</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611861</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138434</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703132</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="17">
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,7 +5549,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5601,13 +5601,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>366.9636532421613</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5829,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191926</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349515</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061504</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1520.445529061504</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400721</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121652</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998295</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998295</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998295</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>194.8007783998295</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703119</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191926</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349515</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061504</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1520.445529061504</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1713.268596655246</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1458.584108449359</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1169.166938412398</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>941.1773875143809</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>720.3848083708508</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,37 +6215,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>923.0670414349513</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N27" t="n">
-        <v>1550.665004989558</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
@@ -6418,7 +6418,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6619,13 +6619,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6652,7 +6652,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6786,16 +6786,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6853,28 +6853,28 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954152</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
         <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
@@ -7023,10 +7023,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
         <v>2129.438138565707</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
         <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7169,19 +7169,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7260,16 +7260,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954154</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
         <v>2496.057455973196</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7497,10 +7497,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
         <v>2129.438138565707</v>
@@ -7561,13 +7561,13 @@
         <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7597,7 +7597,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
@@ -7734,16 +7734,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7831,13 +7831,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>49.74439522492685</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>49.74439522492656</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-3.031258130432365e-12</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9407,10 +9407,10 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N20" t="n">
-        <v>-2.175226711222826e-12</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>33.72338459242764</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,13 +22559,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>288.307786465151</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>30.73842034075891</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22762,16 +22762,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>123.3294524175599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23315,10 +23315,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>1.537044377342227</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>167.8931448703418</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>54.18219756401925</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>147.0213775686977</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392193994</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856548</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>116.6691671648107</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>39.70888054695405</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>40.3204386478848</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>24.63391537253364</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>-3.288480726625471e-13</v>
       </c>
     </row>
     <row r="29">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1355951.599727326</v>
+        <v>1355951.599727325</v>
       </c>
     </row>
     <row r="6">
@@ -26314,46 +26314,46 @@
         <v>48735.31458994615</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982121</v>
+        <v>61578.13273982122</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982122</v>
       </c>
       <c r="E2" t="n">
         <v>60492.0471289592</v>
       </c>
       <c r="F2" t="n">
+        <v>60535.99497675046</v>
+      </c>
+      <c r="G2" t="n">
+        <v>60535.99497675047</v>
+      </c>
+      <c r="H2" t="n">
+        <v>60535.99497675043</v>
+      </c>
+      <c r="I2" t="n">
         <v>60535.99497675044</v>
       </c>
-      <c r="G2" t="n">
-        <v>60535.99497675044</v>
-      </c>
-      <c r="H2" t="n">
-        <v>60535.99497675044</v>
-      </c>
-      <c r="I2" t="n">
-        <v>60535.99497675045</v>
-      </c>
       <c r="J2" t="n">
-        <v>61578.1327398212</v>
+        <v>61578.13273982119</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982119</v>
       </c>
       <c r="L2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="M2" t="n">
+        <v>61578.13273982124</v>
+      </c>
+      <c r="N2" t="n">
+        <v>61578.13273982127</v>
+      </c>
+      <c r="O2" t="n">
+        <v>61578.13273982125</v>
+      </c>
+      <c r="P2" t="n">
         <v>61578.13273982123</v>
-      </c>
-      <c r="N2" t="n">
-        <v>61578.13273982124</v>
-      </c>
-      <c r="O2" t="n">
-        <v>61578.13273982124</v>
-      </c>
-      <c r="P2" t="n">
-        <v>61578.13273982124</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936391.4095185975</v>
+        <v>936391.4095185974</v>
       </c>
       <c r="F3" t="n">
-        <v>7852.637614951788</v>
+        <v>7852.637614951069</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>103327.7358282893</v>
+        <v>103327.7358282894</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,34 +26424,34 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5759.938886718172</v>
+        <v>5759.938886718168</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670376</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.59260167045</v>
+        <v>5067.592601670449</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670403</v>
+        <v>5067.592601670443</v>
       </c>
       <c r="I4" t="n">
         <v>5067.592601670438</v>
       </c>
       <c r="J4" t="n">
-        <v>13058.45186476389</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="K4" t="n">
-        <v>13058.45186476389</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="L4" t="n">
+        <v>13058.45186476391</v>
+      </c>
+      <c r="M4" t="n">
         <v>13058.4518647639</v>
       </c>
-      <c r="M4" t="n">
-        <v>13058.45186476391</v>
-      </c>
       <c r="N4" t="n">
-        <v>13058.45186476391</v>
+        <v>13058.45186476392</v>
       </c>
       <c r="O4" t="n">
         <v>13058.45186476391</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-727419.378516297</v>
+        <v>-727847.4724546262</v>
       </c>
       <c r="C6" t="n">
         <v>-222345.4512513198</v>
       </c>
       <c r="D6" t="n">
-        <v>-222345.4512513197</v>
+        <v>-222345.4512513198</v>
       </c>
       <c r="E6" t="n">
-        <v>-982565.2600548323</v>
+        <v>-982601.4629085276</v>
       </c>
       <c r="F6" t="n">
-        <v>-53506.76506377886</v>
+        <v>-53541.50298921386</v>
       </c>
       <c r="G6" t="n">
-        <v>-45654.12744882624</v>
+        <v>-45688.86537426279</v>
       </c>
       <c r="H6" t="n">
-        <v>-45654.12744882709</v>
+        <v>-45688.86537426282</v>
       </c>
       <c r="I6" t="n">
-        <v>-45654.12744882712</v>
+        <v>-45688.8653742628</v>
       </c>
       <c r="J6" t="n">
-        <v>-250495.3721650828</v>
+        <v>-250495.3721650829</v>
       </c>
       <c r="K6" t="n">
-        <v>-54644.43497885804</v>
+        <v>-54644.43497885812</v>
       </c>
       <c r="L6" t="n">
-        <v>-54644.43497885805</v>
+        <v>-54644.43497885806</v>
       </c>
       <c r="M6" t="n">
         <v>-178852.9456869166</v>
       </c>
       <c r="N6" t="n">
-        <v>-54644.43497885807</v>
+        <v>-54644.43497885804</v>
       </c>
       <c r="O6" t="n">
-        <v>-74072.15297248984</v>
+        <v>-74072.15297248983</v>
       </c>
       <c r="P6" t="n">
         <v>-54644.43497885807</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26747,7 +26747,7 @@
         <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341675</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.297384499299</v>
+        <v>980.2973844992989</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625289284</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58708511378532</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27594,13 +27594,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>93.19054731872913</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>308.0040346621853</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>227.5865030727881</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>67.10475548567732</v>
+        <v>151.7308230374143</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,13 +27862,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>259.3273644978284</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>157.5940952031547</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>100.8619509662267</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28618,13 +28618,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348438</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135345</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663287</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162568</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175683</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159433</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460035</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236514</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669227</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043728</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.0736191065153</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078749</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659452</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521103</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420757</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422589</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473078</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145748</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437249</v>
+        <v>340.4395077511227</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214702</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485293</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742443</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937735</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275956</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189905</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121572</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869281</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796263</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.602080235518</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588156</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392048</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106792</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.676771792006</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417317</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515929</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.9903120353277</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467223</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O21" t="n">
-        <v>522.1224556861822</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O24" t="n">
-        <v>522.1224556861822</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>491.5977325265315</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,19 +33269,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N30" t="n">
-        <v>510.8679233250724</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33506,10 +33506,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N33" t="n">
-        <v>405.6377363145776</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,7 +33518,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33743,13 +33743,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>595.327537312171</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>370.9642309107744</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34217,13 +34217,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>641.2555750770852</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34454,19 +34454,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N45" t="n">
-        <v>641.2555750770852</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -35015,7 +35015,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>625.777556066439</v>
       </c>
       <c r="M11" t="n">
-        <v>778.0318315269849</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N11" t="n">
         <v>744.7323009263698</v>
@@ -35431,7 +35431,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845841</v>
+        <v>177.1017560095107</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317426</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396424</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462697</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902955</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193525</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243168</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683818</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924732</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902362</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.158224775409</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496679</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674336</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312415</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992804</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="P15" t="n">
-        <v>427.90217120714</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625078</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096352</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010454</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899078</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193496</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O21" t="n">
-        <v>379.5262112417378</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O24" t="n">
-        <v>379.5262112417378</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>349.0014880820871</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,19 +36917,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N30" t="n">
-        <v>379.5262112417391</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37154,10 +37154,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N33" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,7 +37166,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,13 +37391,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9858252288377</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>228.3679864663299</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37865,13 +37865,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>509.9138629937518</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38102,19 +38102,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N45" t="n">
-        <v>509.9138629937518</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
